--- a/skraped/AlternativeHypothesis_0_5000.xlsx
+++ b/skraped/AlternativeHypothesis_0_5000.xlsx
@@ -1993,11 +1993,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="46.28125"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -4585,6 +4588,198 @@
         <v>255</v>
       </c>
       <c r="M67" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3" t="s">
         <v>256</v>
       </c>
     </row>

--- a/skraped/AlternativeHypothesis_0_5000.xlsx
+++ b/skraped/AlternativeHypothesis_0_5000.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
@@ -9,6 +9,9 @@
     <sheet name="Collection" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
